--- a/Part2/Tables/binary_conversion_assessment.xlsx
+++ b/Part2/Tables/binary_conversion_assessment.xlsx
@@ -25,12 +25,12 @@
     <t>feature</t>
   </si>
   <si>
-    <t>capital-gain_&gt;4109</t>
-  </si>
-  <si>
     <t>education</t>
   </si>
   <si>
+    <t>capital-gain_&gt;0</t>
+  </si>
+  <si>
     <t>age</t>
   </si>
   <si>
@@ -40,10 +40,10 @@
     <t>sex_Male</t>
   </si>
   <si>
-    <t>capital-loss_&gt;1876</t>
-  </si>
-  <si>
     <t>native-country_United-States</t>
+  </si>
+  <si>
+    <t>capital-loss_&gt;0</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.3568499528415775</v>
+        <v>-0.3190883909971172</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -434,7 +434,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.3360678806757145</v>
+        <v>-0.2617637880287524</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.234037094644563</v>
+        <v>-0.2393115765160782</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -456,7 +456,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-0.229658101638547</v>
+        <v>-0.2305872358043329</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -467,10 +467,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.2159691671609811</v>
+        <v>-0.2099298691948213</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>4.158297233927511E-294</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -478,10 +478,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.1941724945807803</v>
+        <v>-0.03144789733721361</v>
       </c>
       <c r="C7">
-        <v>6.899968837905023E-274</v>
+        <v>5.61384948071594E-08</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -489,10 +489,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.03870236947617804</v>
+        <v>0.0175054593341036</v>
       </c>
       <c r="C8">
-        <v>2.87941259599042E-12</v>
+        <v>0.002507193245471858</v>
       </c>
     </row>
   </sheetData>
